--- a/BrokenLinkValidator/Datatables/SiteMapUrl_CB3.xlsx
+++ b/BrokenLinkValidator/Datatables/SiteMapUrl_CB3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WC Bradley Workspace\BrokenLinkValidator\Datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Broken Links Workspace\BrokenLinkValidator\Datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="856">
   <si>
     <t>CB New Site URLs</t>
   </si>
@@ -2128,114 +2128,6 @@
     <t>https://www.charbroil.com/hardware-pack-g43822b001w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/upper-hinge-80011617</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/clip-grease-cup-80011874</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/electronic-ignition-module-80012212</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/carryover-tube-80012305</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/burner-brace-80012481</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/support-bar-80013069</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/valvemanifoldregulator-80013289</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/firebox-bowl-80013305</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rotisserie-burner-80013375</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/sideburner-burner-kit-80013400</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/burners-wspider-guards-80013421</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/valvehoseregulator-80013769</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/temperature-gauge-80014048</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/heat-tents-stainless-steel-80014105</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/ignitor-module-80014404</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/cooking-grate-80015518</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-knob-80015534</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/sideburner-w-electrode-80015596</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/handle-end-cap-left-80015604</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/handle-end-cap-right-80015605</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/top-lid-handle-80015741</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/carryover-tube-80015760</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/burner-box-weldment-main-80016121</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/burner-assy-main-80016127</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/electrode-pole-side-burner-80016135</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/shelf-panel-80016152</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/burner-assy-main-burner-80016159</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-panel-main-80016161</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/side-burner-fascia-side-burner-80016172</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/burners-wspider-guards-80016270</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/main-burner-80016303</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/screw-nut-pack-for-retailer-store-only-80016411</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/bracket-fmain-burner-venturi-80016859</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/burners-wspider-guards-80016864</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/valvemanifoldregulator-80016867</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/electrode-fmain-burner-wwirebracket-80016974</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/infrared-cooking-grate-80017024</t>
   </si>
   <si>
@@ -2602,9 +2494,6 @@
     <t>https://www.charbroil.com/knob-e2030024w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/grease-tray-e2030027w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/rubber-feet-e2030028w1</t>
   </si>
   <si>
@@ -2614,9 +2503,6 @@
     <t>https://www.charbroil.com/knob-f4010004w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/electronic-ignition-module-f4010012w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/damper-fdduo100110</t>
   </si>
   <si>
@@ -2647,9 +2533,6 @@
     <t>https://www.charbroil.com/electrode-wire-for-side-burner-fdduo10057</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/grate-for-side-burner-fdduo10058</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/pivot-wire-side-burner-lid-fdduo10059</t>
   </si>
   <si>
@@ -2699,6 +2582,12 @@
   </si>
   <si>
     <t>https://www.charbroil.com/electrode-g3110005w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Cap-For-Smoke-Stack-FDECG1000206</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/burner-g2114700w1</t>
   </si>
 </sst>
 </file>
@@ -2753,7 +2642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2766,8 +2655,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2803,6 +2698,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2812,7 +2720,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2826,6 +2734,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -8742,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B602"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8761,4811 +8671,4807 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1201</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>1202</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1203</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1204</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>1205</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>1206</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>1207</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>1208</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>1209</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>1210</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>1211</v>
-      </c>
-      <c r="B12" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>1212</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>1213</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>1214</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>1215</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>1216</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>1217</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>1218</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>1219</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>1220</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>1221</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>1222</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>1223</v>
-      </c>
-      <c r="B24" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>1224</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>1225</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>1226</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>1227</v>
-      </c>
-      <c r="B28" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>1228</v>
-      </c>
-      <c r="B29" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>1229</v>
-      </c>
-      <c r="B30" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>1230</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>1231</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>1232</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>1233</v>
-      </c>
-      <c r="B34" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>1234</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>1235</v>
-      </c>
-      <c r="B36" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>1236</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>1237</v>
-      </c>
-      <c r="B38" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>1238</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>1239</v>
-      </c>
-      <c r="B40" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>1240</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>1241</v>
-      </c>
-      <c r="B42" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>1242</v>
-      </c>
-      <c r="B43" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>1243</v>
-      </c>
-      <c r="B44" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>1244</v>
-      </c>
-      <c r="B45" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>1245</v>
-      </c>
-      <c r="B46" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>1246</v>
-      </c>
-      <c r="B47" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>1247</v>
-      </c>
-      <c r="B48" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>1248</v>
-      </c>
-      <c r="B49" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>1249</v>
-      </c>
-      <c r="B50" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>1250</v>
-      </c>
-      <c r="B51" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>1251</v>
-      </c>
-      <c r="B52" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>1252</v>
-      </c>
-      <c r="B53" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>1253</v>
-      </c>
-      <c r="B54" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>1254</v>
-      </c>
-      <c r="B55" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>1255</v>
-      </c>
-      <c r="B56" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>1256</v>
-      </c>
-      <c r="B57" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>1257</v>
-      </c>
-      <c r="B58" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>1258</v>
-      </c>
-      <c r="B59" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>1259</v>
-      </c>
-      <c r="B60" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>1260</v>
-      </c>
-      <c r="B61" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>1261</v>
-      </c>
-      <c r="B62" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>1262</v>
-      </c>
-      <c r="B63" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>1263</v>
-      </c>
-      <c r="B64" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>1264</v>
-      </c>
-      <c r="B65" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>1265</v>
-      </c>
-      <c r="B66" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>1266</v>
-      </c>
-      <c r="B67" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>1267</v>
-      </c>
-      <c r="B68" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>1268</v>
-      </c>
-      <c r="B69" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>1269</v>
-      </c>
-      <c r="B70" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>1270</v>
-      </c>
-      <c r="B71" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>1271</v>
-      </c>
-      <c r="B72" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>1272</v>
-      </c>
-      <c r="B73" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>1273</v>
-      </c>
-      <c r="B74" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>1274</v>
-      </c>
-      <c r="B75" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>1275</v>
-      </c>
-      <c r="B76" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>1276</v>
-      </c>
-      <c r="B77" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>1277</v>
-      </c>
-      <c r="B78" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>1278</v>
-      </c>
-      <c r="B79" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>1279</v>
-      </c>
-      <c r="B80" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>1280</v>
-      </c>
-      <c r="B81" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>1281</v>
-      </c>
-      <c r="B82" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>1282</v>
-      </c>
-      <c r="B83" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>1283</v>
-      </c>
-      <c r="B84" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>1284</v>
-      </c>
-      <c r="B85" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>1285</v>
-      </c>
-      <c r="B86" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>1286</v>
-      </c>
-      <c r="B87" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>1287</v>
-      </c>
-      <c r="B88" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>1288</v>
-      </c>
-      <c r="B89" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>1289</v>
-      </c>
-      <c r="B90" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>1290</v>
-      </c>
-      <c r="B91" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>1291</v>
-      </c>
-      <c r="B92" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>1292</v>
-      </c>
-      <c r="B93" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>1293</v>
-      </c>
-      <c r="B94" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>1294</v>
-      </c>
-      <c r="B95" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>1295</v>
-      </c>
-      <c r="B96" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>1296</v>
-      </c>
-      <c r="B97" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>1297</v>
-      </c>
-      <c r="B98" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>1298</v>
-      </c>
-      <c r="B99" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>1299</v>
-      </c>
-      <c r="B100" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>1300</v>
-      </c>
-      <c r="B101" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>1301</v>
-      </c>
-      <c r="B102" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>1302</v>
-      </c>
-      <c r="B103" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>1303</v>
-      </c>
-      <c r="B104" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>1304</v>
-      </c>
-      <c r="B105" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>1305</v>
-      </c>
-      <c r="B106" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>1306</v>
-      </c>
-      <c r="B107" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>1307</v>
-      </c>
-      <c r="B108" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>1308</v>
-      </c>
-      <c r="B109" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>1309</v>
-      </c>
-      <c r="B110" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>1310</v>
-      </c>
-      <c r="B111" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>1311</v>
-      </c>
-      <c r="B112" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>1312</v>
-      </c>
-      <c r="B113" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>1313</v>
-      </c>
-      <c r="B114" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>1314</v>
-      </c>
-      <c r="B115" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>1315</v>
-      </c>
-      <c r="B116" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>1316</v>
-      </c>
-      <c r="B117" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>1317</v>
-      </c>
-      <c r="B118" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>1318</v>
-      </c>
-      <c r="B119" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>1319</v>
-      </c>
-      <c r="B120" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>1320</v>
-      </c>
-      <c r="B121" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>1321</v>
-      </c>
-      <c r="B122" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>1322</v>
-      </c>
-      <c r="B123" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>1323</v>
-      </c>
-      <c r="B124" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>1324</v>
-      </c>
-      <c r="B125" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>1325</v>
-      </c>
-      <c r="B126" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>1326</v>
-      </c>
-      <c r="B127" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>1327</v>
-      </c>
-      <c r="B128" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>1328</v>
-      </c>
-      <c r="B129" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>1329</v>
-      </c>
-      <c r="B130" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>1330</v>
-      </c>
-      <c r="B131" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>1331</v>
-      </c>
-      <c r="B132" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>1332</v>
-      </c>
-      <c r="B133" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>1333</v>
-      </c>
-      <c r="B134" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>1334</v>
-      </c>
-      <c r="B135" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>1335</v>
-      </c>
-      <c r="B136" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>1336</v>
-      </c>
-      <c r="B137" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>1337</v>
-      </c>
-      <c r="B138" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>1338</v>
-      </c>
-      <c r="B139" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>1339</v>
-      </c>
-      <c r="B140" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>1340</v>
-      </c>
-      <c r="B141" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>1341</v>
-      </c>
-      <c r="B142" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>1342</v>
-      </c>
-      <c r="B143" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>1343</v>
-      </c>
-      <c r="B144" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>1344</v>
-      </c>
-      <c r="B145" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>1345</v>
-      </c>
-      <c r="B146" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>1346</v>
-      </c>
-      <c r="B147" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>1347</v>
-      </c>
-      <c r="B148" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>1348</v>
-      </c>
-      <c r="B149" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>1349</v>
-      </c>
-      <c r="B150" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>1350</v>
-      </c>
-      <c r="B151" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>1351</v>
-      </c>
-      <c r="B152" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>1352</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>853</v>
+        <v>1351</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>1353</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>854</v>
+        <v>1352</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>1354</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>855</v>
+        <v>1353</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>1355</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>856</v>
+        <v>1354</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>1356</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>857</v>
+        <v>1355</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>1357</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>858</v>
+        <v>1356</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>1358</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>859</v>
+        <v>1357</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>1359</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>860</v>
+        <v>1358</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>1360</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>861</v>
+        <v>1359</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>1361</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>862</v>
+        <v>1360</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>1362</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>863</v>
+        <v>1361</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>1363</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>864</v>
+        <v>1362</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>1364</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>865</v>
+        <v>1363</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>1365</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>866</v>
+        <v>1364</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>1366</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>867</v>
+        <v>1365</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>1367</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>868</v>
+        <v>1366</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>1368</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>869</v>
+        <v>1367</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>1369</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>870</v>
+        <v>1368</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>1370</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>871</v>
+        <v>1369</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>1371</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>872</v>
+        <v>1370</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>1372</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>873</v>
+        <v>1371</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>1373</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>874</v>
+        <v>1372</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>1374</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>875</v>
+        <v>1373</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>1375</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>876</v>
+        <v>1374</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>1376</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>877</v>
+        <v>1375</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>1377</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>878</v>
+        <v>1376</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>1378</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>879</v>
+        <v>1377</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>1379</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>880</v>
+        <v>1378</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>1380</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>881</v>
+        <v>1379</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>1381</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>882</v>
+        <v>1380</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>1382</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>883</v>
+        <v>1381</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>1383</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>884</v>
+        <v>1382</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>1384</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>885</v>
+        <v>1383</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>1385</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>886</v>
+        <v>1384</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>1386</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>887</v>
+        <v>1385</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>1387</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>888</v>
+        <v>1386</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>1388</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>889</v>
+        <v>1387</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>1389</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>890</v>
+        <v>1388</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>1390</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>891</v>
+        <v>1389</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>1391</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>2</v>
+        <v>1390</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>1392</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>3</v>
+        <v>1391</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>1393</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>4</v>
+        <v>1392</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>1394</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>5</v>
+        <v>1393</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>1395</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>6</v>
+        <v>1394</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>1396</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>7</v>
+        <v>1395</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>1397</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>8</v>
+        <v>1396</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>1398</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>9</v>
+        <v>1397</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>1399</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>10</v>
+        <v>1398</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>1400</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>11</v>
+        <v>1399</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>1401</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>12</v>
+        <v>1400</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>1402</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>13</v>
+        <v>1401</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>1403</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>14</v>
+        <v>1402</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>1404</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>15</v>
+        <v>1403</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>1405</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>16</v>
+        <v>1404</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>1406</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>17</v>
+        <v>1405</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>1407</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>18</v>
+        <v>1406</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>1408</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>19</v>
+        <v>1407</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>1409</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>20</v>
+        <v>1408</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>1410</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>21</v>
+        <v>1409</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>1411</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>22</v>
+        <v>1410</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>1412</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>23</v>
+        <v>1411</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>1413</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>24</v>
+        <v>1412</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>1414</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>25</v>
+        <v>1413</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>1415</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>26</v>
+        <v>1414</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>1416</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>27</v>
+        <v>1415</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>1417</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>28</v>
+        <v>1416</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>1418</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>29</v>
+        <v>1417</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>1419</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>30</v>
+        <v>1418</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>1420</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>31</v>
+        <v>1419</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>1421</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>32</v>
+        <v>1420</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>1422</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>33</v>
+        <v>1421</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>1423</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>34</v>
+        <v>1422</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>1424</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>35</v>
+        <v>1423</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>36</v>
+        <v>1424</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>1426</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>37</v>
+        <v>1425</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>1427</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>38</v>
+        <v>1426</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>1428</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>39</v>
+        <v>1427</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>1429</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>40</v>
+        <v>1428</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>1430</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>41</v>
+        <v>1429</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>1431</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>42</v>
+        <v>1430</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>1432</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>43</v>
+        <v>1431</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>1433</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>44</v>
+        <v>1432</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>1434</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>45</v>
+        <v>1433</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>1435</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>46</v>
+        <v>1434</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>1436</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>47</v>
+        <v>1435</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>1437</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>48</v>
+        <v>1436</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>1438</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>49</v>
+        <v>1437</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>1439</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>50</v>
+        <v>1438</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>1440</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>51</v>
+        <v>1439</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>1441</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>52</v>
+        <v>1440</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>1442</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>53</v>
+        <v>1441</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>1443</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>54</v>
+        <v>1442</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>1444</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>55</v>
+        <v>1443</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>1445</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>56</v>
+        <v>1444</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>1446</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>57</v>
+        <v>1445</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>1447</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>58</v>
+        <v>1446</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>1448</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>59</v>
+        <v>1447</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>1449</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>60</v>
+        <v>1448</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>1450</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>61</v>
+        <v>1449</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>1451</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>62</v>
+        <v>1450</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>1452</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>63</v>
+        <v>1451</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>1453</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>64</v>
+        <v>1452</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>1454</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>65</v>
+        <v>1453</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>1455</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>66</v>
+        <v>1454</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>1456</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>67</v>
+        <v>1455</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>1457</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>68</v>
+        <v>1456</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>1458</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>69</v>
+        <v>1457</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>1459</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>70</v>
+        <v>1458</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>1460</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>71</v>
+        <v>1459</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>1461</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>72</v>
+        <v>1460</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>1462</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>73</v>
+        <v>1461</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>1463</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>74</v>
+        <v>1462</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>1464</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>75</v>
+        <v>1463</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>1465</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>76</v>
+        <v>1464</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>1466</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>77</v>
+        <v>1465</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>1467</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>78</v>
+        <v>1466</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>1468</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>79</v>
+        <v>1467</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>1469</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>80</v>
+        <v>1468</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>1470</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>81</v>
+        <v>1469</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>1471</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>82</v>
+        <v>1470</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>1472</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>83</v>
+        <v>1471</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>1473</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>84</v>
+        <v>1472</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>1474</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>85</v>
+        <v>1473</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>1475</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>86</v>
+        <v>1474</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>1476</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>87</v>
+        <v>1475</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>1477</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>88</v>
+        <v>1476</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>1478</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>89</v>
+        <v>1477</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>1479</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>90</v>
+        <v>1478</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>1480</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>91</v>
+        <v>1479</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>1481</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>92</v>
+        <v>1480</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>1482</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>93</v>
+        <v>1481</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>1483</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>94</v>
+        <v>1482</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>1484</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>95</v>
+        <v>1483</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>1485</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>96</v>
+        <v>1484</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>1486</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>97</v>
+        <v>1485</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>1487</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>98</v>
+        <v>1486</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>1488</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>99</v>
+        <v>1487</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>1489</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>100</v>
+        <v>1488</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>1490</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>101</v>
+        <v>1489</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>1491</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>102</v>
+        <v>1490</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>1492</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>103</v>
+        <v>1491</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>1493</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>104</v>
+        <v>1492</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>1494</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>105</v>
+        <v>1493</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>1495</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>106</v>
+        <v>1494</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>1496</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>107</v>
+        <v>1495</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>1497</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>108</v>
+        <v>1496</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>1498</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>109</v>
+        <v>1497</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>1499</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>110</v>
+        <v>1498</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>1500</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>111</v>
+        <v>1499</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>1501</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>112</v>
+        <v>1500</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>1502</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>113</v>
+        <v>1501</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>1503</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>114</v>
+        <v>1502</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>1504</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>115</v>
+        <v>1503</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>1505</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>116</v>
+        <v>1504</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>1506</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>117</v>
+        <v>1505</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>1507</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>118</v>
+        <v>1506</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>1508</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>119</v>
+        <v>1507</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>1509</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>120</v>
+        <v>1508</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>1510</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>121</v>
+        <v>1509</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>1511</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>122</v>
+        <v>1510</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>1512</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>123</v>
+        <v>1511</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>1513</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>124</v>
+        <v>1512</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>1514</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>125</v>
+        <v>1513</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>1515</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>126</v>
+        <v>1514</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>1516</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>127</v>
+        <v>1515</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>1517</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>128</v>
+        <v>1516</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>1518</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>129</v>
+        <v>1517</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>1519</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>130</v>
+        <v>1518</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>1520</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>131</v>
+        <v>1519</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>1521</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>132</v>
+        <v>1520</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>1522</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>133</v>
+        <v>1521</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>1523</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>134</v>
+        <v>1522</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>1524</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>135</v>
+        <v>1523</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>1525</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>136</v>
+        <v>1524</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>1526</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>137</v>
+        <v>1525</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>1527</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>138</v>
+        <v>1526</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>1528</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>139</v>
+        <v>1527</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>1529</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>140</v>
+        <v>1528</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>1530</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>141</v>
+        <v>1529</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>1531</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>142</v>
+        <v>1530</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>1532</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>143</v>
+        <v>1531</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>1533</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>144</v>
+        <v>1532</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>1534</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>145</v>
+        <v>1533</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>1535</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>146</v>
+        <v>1534</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>1536</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>147</v>
+        <v>1535</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>1537</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>148</v>
+        <v>1536</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>1538</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>149</v>
+        <v>1537</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>1539</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>150</v>
+        <v>1538</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>1540</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>151</v>
+        <v>1539</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>1541</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>152</v>
+        <v>1540</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>1542</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>153</v>
+        <v>1541</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>1543</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>154</v>
+        <v>1542</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>1544</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>155</v>
+        <v>1543</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>1545</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>156</v>
+        <v>1544</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>1546</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>157</v>
+        <v>1545</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>1547</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>158</v>
+        <v>1546</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>1548</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>159</v>
+        <v>1547</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>1549</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>160</v>
+        <v>1548</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>1550</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>161</v>
+        <v>1549</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>1551</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>162</v>
+        <v>1550</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>1552</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>163</v>
+        <v>1551</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>1553</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>164</v>
+        <v>1552</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>1554</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>165</v>
+        <v>1553</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>1555</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>166</v>
+        <v>1554</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>1556</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>167</v>
+        <v>1555</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>1557</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>168</v>
+        <v>1556</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>1558</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>169</v>
+        <v>1557</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>1559</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>170</v>
+        <v>1558</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>1560</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>171</v>
+        <v>1559</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>1561</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>172</v>
+        <v>1560</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>1562</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>173</v>
+        <v>1561</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>1563</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>174</v>
+        <v>1562</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>1564</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>175</v>
+        <v>1563</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>1565</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>176</v>
+        <v>1564</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>1566</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>177</v>
+        <v>1565</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>1567</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>178</v>
+        <v>1566</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>1568</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>179</v>
+        <v>1567</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>1569</v>
-      </c>
-      <c r="B370" s="6" t="s">
-        <v>180</v>
+        <v>1568</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>1570</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>181</v>
+        <v>1569</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>1571</v>
-      </c>
-      <c r="B372" s="6" t="s">
-        <v>182</v>
+        <v>1570</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>1572</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>183</v>
+        <v>1571</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>1573</v>
-      </c>
-      <c r="B374" s="6" t="s">
-        <v>184</v>
+        <v>1572</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>1574</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>185</v>
+        <v>1573</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>1575</v>
-      </c>
-      <c r="B376" s="6" t="s">
-        <v>186</v>
+        <v>1574</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>1576</v>
-      </c>
-      <c r="B377" s="6" t="s">
-        <v>187</v>
+        <v>1575</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>1577</v>
-      </c>
-      <c r="B378" s="6" t="s">
-        <v>188</v>
+        <v>1576</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>1578</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>189</v>
+        <v>1577</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>1579</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>190</v>
+        <v>1578</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>1580</v>
-      </c>
-      <c r="B381" s="6" t="s">
-        <v>191</v>
+        <v>1579</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>1581</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>192</v>
+        <v>1580</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>1582</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>193</v>
+        <v>1581</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>1583</v>
-      </c>
-      <c r="B384" s="6" t="s">
-        <v>194</v>
+        <v>1582</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>1584</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>195</v>
+        <v>1583</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>1585</v>
-      </c>
-      <c r="B386" s="6" t="s">
-        <v>196</v>
+        <v>1584</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>1586</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>197</v>
+        <v>1585</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>1587</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>198</v>
+        <v>1586</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>1588</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>199</v>
+        <v>1587</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>1589</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>200</v>
+        <v>1588</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>1590</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>201</v>
+        <v>1589</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>1591</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>202</v>
+        <v>1590</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>1592</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>203</v>
+        <v>1591</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>1593</v>
-      </c>
-      <c r="B394" s="6" t="s">
-        <v>204</v>
+        <v>1592</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>1594</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>205</v>
+        <v>1593</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>1595</v>
-      </c>
-      <c r="B396" s="6" t="s">
-        <v>206</v>
+        <v>1594</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>1596</v>
-      </c>
-      <c r="B397" s="6" t="s">
-        <v>207</v>
+        <v>1595</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>1597</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>208</v>
+        <v>1596</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>1598</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>209</v>
+        <v>1597</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>1599</v>
-      </c>
-      <c r="B400" s="6" t="s">
-        <v>210</v>
+        <v>1598</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>1600</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>211</v>
+        <v>1599</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>1601</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>212</v>
+        <v>1600</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>1602</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>213</v>
+        <v>1601</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>1603</v>
-      </c>
-      <c r="B404" s="6" t="s">
-        <v>214</v>
+        <v>1602</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>1604</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>215</v>
+        <v>1603</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>1605</v>
-      </c>
-      <c r="B406" s="6" t="s">
-        <v>216</v>
+        <v>1604</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>1606</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>217</v>
+        <v>1605</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>1607</v>
-      </c>
-      <c r="B408" s="6" t="s">
-        <v>218</v>
+        <v>1606</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>1608</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>219</v>
+        <v>1607</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>1609</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>220</v>
+        <v>1608</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>1610</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>221</v>
+        <v>1609</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>1611</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>222</v>
+        <v>1610</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>1612</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>223</v>
+        <v>1611</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>1613</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>224</v>
+        <v>1612</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>1614</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>225</v>
+        <v>1613</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>1615</v>
-      </c>
-      <c r="B416" s="6" t="s">
-        <v>226</v>
+        <v>1614</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>1616</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>227</v>
+        <v>1615</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>1617</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>228</v>
+        <v>1616</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>1618</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>229</v>
+        <v>1617</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>1619</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>230</v>
+        <v>1618</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>1620</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>231</v>
+        <v>1619</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>1621</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>232</v>
+        <v>1620</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>1622</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>233</v>
+        <v>1621</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>1623</v>
-      </c>
-      <c r="B424" s="6" t="s">
-        <v>234</v>
+        <v>1622</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>1624</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>235</v>
+        <v>1623</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>1625</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>236</v>
+        <v>1624</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>1626</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>237</v>
+        <v>1625</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>1627</v>
-      </c>
-      <c r="B428" s="6" t="s">
-        <v>238</v>
+        <v>1626</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>1628</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>239</v>
+        <v>1627</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>1629</v>
-      </c>
-      <c r="B430" s="6" t="s">
-        <v>240</v>
+        <v>1628</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>1630</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>241</v>
+        <v>1629</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>1631</v>
-      </c>
-      <c r="B432" s="6" t="s">
-        <v>242</v>
+        <v>1630</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>1632</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>243</v>
+        <v>1631</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>1633</v>
-      </c>
-      <c r="B434" s="6" t="s">
-        <v>244</v>
+        <v>1632</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>1634</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>245</v>
+        <v>1633</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>1635</v>
-      </c>
-      <c r="B436" s="6" t="s">
-        <v>246</v>
+        <v>1634</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>1636</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>247</v>
+        <v>1635</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>1637</v>
-      </c>
-      <c r="B438" s="6" t="s">
-        <v>248</v>
+        <v>1636</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>1638</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>249</v>
+        <v>1637</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>1639</v>
-      </c>
-      <c r="B440" s="6" t="s">
-        <v>250</v>
+        <v>1638</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>1640</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>251</v>
+        <v>1639</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>1641</v>
-      </c>
-      <c r="B442" s="6" t="s">
-        <v>252</v>
+        <v>1640</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>1642</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>253</v>
+        <v>1641</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>1643</v>
-      </c>
-      <c r="B444" s="6" t="s">
-        <v>254</v>
+        <v>1642</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>1644</v>
-      </c>
-      <c r="B445" s="6" t="s">
-        <v>255</v>
+        <v>1643</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>1645</v>
-      </c>
-      <c r="B446" s="6" t="s">
-        <v>256</v>
+        <v>1644</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>1646</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>257</v>
+        <v>1645</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>1647</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>258</v>
+        <v>1646</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>1648</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>259</v>
+        <v>1647</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>1649</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>260</v>
+        <v>1648</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>1650</v>
-      </c>
-      <c r="B451" s="6" t="s">
-        <v>261</v>
+        <v>1649</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>1651</v>
-      </c>
-      <c r="B452" s="6" t="s">
-        <v>262</v>
+        <v>1650</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>1652</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>263</v>
+        <v>1651</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>1653</v>
-      </c>
-      <c r="B454" s="6" t="s">
-        <v>264</v>
+        <v>1652</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>1654</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>265</v>
+        <v>1653</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>1655</v>
-      </c>
-      <c r="B456" s="6" t="s">
-        <v>266</v>
+        <v>1654</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>1656</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>267</v>
+        <v>1655</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>1657</v>
-      </c>
-      <c r="B458" s="6" t="s">
-        <v>268</v>
+        <v>1656</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>1658</v>
-      </c>
-      <c r="B459" s="6" t="s">
-        <v>269</v>
+        <v>1657</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>1659</v>
-      </c>
-      <c r="B460" s="6" t="s">
-        <v>270</v>
+        <v>1658</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>1660</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>271</v>
+        <v>1659</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>1661</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>272</v>
+        <v>1660</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>1662</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>273</v>
+        <v>1661</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>1663</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>274</v>
+        <v>1662</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>1664</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>892</v>
+        <v>1663</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>1665</v>
-      </c>
-      <c r="B466" s="6" t="s">
-        <v>275</v>
+        <v>1664</v>
+      </c>
+      <c r="B466" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>1666</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>276</v>
+        <v>1665</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>1667</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>277</v>
+        <v>1666</v>
+      </c>
+      <c r="B468" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>1668</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>278</v>
+        <v>1667</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>1669</v>
-      </c>
-      <c r="B470" s="6" t="s">
-        <v>279</v>
+        <v>1668</v>
+      </c>
+      <c r="B470" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>1670</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>280</v>
+        <v>1669</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>1671</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>281</v>
+        <v>1670</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>1672</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>282</v>
+        <v>1671</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>1673</v>
-      </c>
-      <c r="B474" s="6" t="s">
-        <v>283</v>
+        <v>1672</v>
+      </c>
+      <c r="B474" s="7" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>1674</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>284</v>
+        <v>1673</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>1675</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>285</v>
+        <v>1674</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>1676</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>286</v>
+        <v>1675</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>1677</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>287</v>
+        <v>1676</v>
+      </c>
+      <c r="B478" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>1678</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>288</v>
+        <v>1677</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>1679</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>289</v>
+        <v>1678</v>
+      </c>
+      <c r="B480" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>1680</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>290</v>
+        <v>1679</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>1681</v>
-      </c>
-      <c r="B482" s="6" t="s">
-        <v>291</v>
+        <v>1680</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>1682</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>292</v>
+        <v>1681</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>1683</v>
-      </c>
-      <c r="B484" s="6" t="s">
-        <v>293</v>
+        <v>1682</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>1684</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>294</v>
+        <v>1683</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>1685</v>
-      </c>
-      <c r="B486" s="6" t="s">
-        <v>295</v>
+        <v>1684</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>1686</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>296</v>
+        <v>1685</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>1687</v>
-      </c>
-      <c r="B488" s="6" t="s">
-        <v>297</v>
+        <v>1686</v>
+      </c>
+      <c r="B488" s="7" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>1688</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>298</v>
+        <v>1687</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>1689</v>
-      </c>
-      <c r="B490" s="6" t="s">
-        <v>299</v>
+        <v>1688</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>1690</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>300</v>
+        <v>1689</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>1691</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>301</v>
+        <v>1690</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>1692</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>302</v>
+        <v>1691</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>1693</v>
-      </c>
-      <c r="B494" s="6" t="s">
-        <v>303</v>
+        <v>1692</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>1694</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>304</v>
+        <v>1693</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>1695</v>
-      </c>
-      <c r="B496" s="6" t="s">
-        <v>305</v>
+        <v>1694</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>1696</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>306</v>
+        <v>1695</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>1697</v>
-      </c>
-      <c r="B498" s="6" t="s">
-        <v>307</v>
+        <v>1696</v>
+      </c>
+      <c r="B498" s="7" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>1698</v>
-      </c>
-      <c r="B499" s="6" t="s">
-        <v>308</v>
+        <v>1697</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>1699</v>
-      </c>
-      <c r="B500" s="6" t="s">
-        <v>309</v>
+        <v>1698</v>
+      </c>
+      <c r="B500" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>1700</v>
-      </c>
-      <c r="B501" s="6" t="s">
-        <v>310</v>
+        <v>1699</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>1701</v>
-      </c>
-      <c r="B502" s="6" t="s">
-        <v>311</v>
+        <v>1700</v>
+      </c>
+      <c r="B502" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>1702</v>
-      </c>
-      <c r="B503" s="6" t="s">
-        <v>312</v>
+        <v>1701</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
-        <v>1703</v>
-      </c>
-      <c r="B504" s="6" t="s">
-        <v>313</v>
+        <v>1702</v>
+      </c>
+      <c r="B504" s="7" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
-        <v>1704</v>
-      </c>
-      <c r="B505" s="6" t="s">
-        <v>314</v>
+        <v>1703</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
-        <v>1705</v>
-      </c>
-      <c r="B506" s="6" t="s">
-        <v>315</v>
+        <v>1704</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
-        <v>1706</v>
-      </c>
-      <c r="B507" s="6" t="s">
-        <v>316</v>
+        <v>1705</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
-        <v>1707</v>
-      </c>
-      <c r="B508" s="6" t="s">
-        <v>317</v>
+        <v>1706</v>
+      </c>
+      <c r="B508" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
-        <v>1708</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>318</v>
+        <v>1707</v>
+      </c>
+      <c r="B509" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
-        <v>1709</v>
-      </c>
-      <c r="B510" s="6" t="s">
-        <v>319</v>
+        <v>1708</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
-        <v>1710</v>
-      </c>
-      <c r="B511" s="6" t="s">
-        <v>320</v>
+        <v>1709</v>
+      </c>
+      <c r="B511" s="8" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
-        <v>1711</v>
-      </c>
-      <c r="B512" s="6" t="s">
-        <v>321</v>
+        <v>1710</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
-        <v>1712</v>
-      </c>
-      <c r="B513" s="6" t="s">
-        <v>322</v>
+        <v>1711</v>
+      </c>
+      <c r="B513" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
-        <v>1713</v>
-      </c>
-      <c r="B514" s="6" t="s">
-        <v>323</v>
+        <v>1712</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
-        <v>1714</v>
-      </c>
-      <c r="B515" s="6" t="s">
-        <v>324</v>
+        <v>1713</v>
+      </c>
+      <c r="B515" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <v>1715</v>
-      </c>
-      <c r="B516" s="6" t="s">
-        <v>325</v>
+        <v>1714</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <v>1716</v>
-      </c>
-      <c r="B517" s="6" t="s">
-        <v>326</v>
+        <v>1715</v>
+      </c>
+      <c r="B517" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <v>1717</v>
-      </c>
-      <c r="B518" s="6" t="s">
-        <v>327</v>
+        <v>1716</v>
+      </c>
+      <c r="B518" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <v>1718</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>328</v>
+        <v>1717</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <v>1719</v>
-      </c>
-      <c r="B520" s="6" t="s">
-        <v>329</v>
+        <v>1718</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <v>1720</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>330</v>
+        <v>1719</v>
+      </c>
+      <c r="B521" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <v>1721</v>
-      </c>
-      <c r="B522" s="6" t="s">
-        <v>331</v>
+        <v>1720</v>
+      </c>
+      <c r="B522" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <v>1722</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>332</v>
+        <v>1721</v>
+      </c>
+      <c r="B523" s="8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <v>1723</v>
-      </c>
-      <c r="B524" s="6" t="s">
-        <v>333</v>
+        <v>1722</v>
+      </c>
+      <c r="B524" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <v>1724</v>
-      </c>
-      <c r="B525" s="6" t="s">
-        <v>334</v>
+        <v>1723</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <v>1725</v>
-      </c>
-      <c r="B526" s="6" t="s">
-        <v>335</v>
+        <v>1724</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
-        <v>1726</v>
-      </c>
-      <c r="B527" s="6" t="s">
-        <v>336</v>
+        <v>1725</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
-        <v>1727</v>
-      </c>
-      <c r="B528" s="6" t="s">
-        <v>337</v>
+        <v>1726</v>
+      </c>
+      <c r="B528" s="7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
-        <v>1728</v>
-      </c>
-      <c r="B529" s="6" t="s">
-        <v>338</v>
+        <v>1727</v>
+      </c>
+      <c r="B529" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
-        <v>1729</v>
-      </c>
-      <c r="B530" s="6" t="s">
-        <v>339</v>
+        <v>1728</v>
+      </c>
+      <c r="B530" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
-        <v>1730</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>340</v>
+        <v>1729</v>
+      </c>
+      <c r="B531" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
-        <v>1731</v>
-      </c>
-      <c r="B532" s="6" t="s">
-        <v>341</v>
+        <v>1730</v>
+      </c>
+      <c r="B532" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
-        <v>1732</v>
-      </c>
-      <c r="B533" s="6" t="s">
-        <v>342</v>
+        <v>1731</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
-        <v>1733</v>
-      </c>
-      <c r="B534" s="6" t="s">
-        <v>343</v>
+        <v>1732</v>
+      </c>
+      <c r="B534" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
-        <v>1734</v>
-      </c>
-      <c r="B535" s="6" t="s">
-        <v>344</v>
+        <v>1733</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
-        <v>1735</v>
-      </c>
-      <c r="B536" s="6" t="s">
-        <v>345</v>
+        <v>1734</v>
+      </c>
+      <c r="B536" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
-        <v>1736</v>
-      </c>
-      <c r="B537" s="6" t="s">
-        <v>346</v>
+        <v>1735</v>
+      </c>
+      <c r="B537" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
-        <v>1737</v>
-      </c>
-      <c r="B538" s="6" t="s">
-        <v>347</v>
+        <v>1736</v>
+      </c>
+      <c r="B538" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
-        <v>1738</v>
-      </c>
-      <c r="B539" s="6" t="s">
-        <v>348</v>
+        <v>1737</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
-        <v>1739</v>
-      </c>
-      <c r="B540" s="6" t="s">
-        <v>349</v>
+        <v>1738</v>
+      </c>
+      <c r="B540" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
-        <v>1740</v>
-      </c>
-      <c r="B541" s="6" t="s">
-        <v>350</v>
+        <v>1739</v>
+      </c>
+      <c r="B541" s="8" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
-        <v>1741</v>
-      </c>
-      <c r="B542" s="6" t="s">
-        <v>351</v>
+        <v>1740</v>
+      </c>
+      <c r="B542" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
-        <v>1742</v>
-      </c>
-      <c r="B543" s="6" t="s">
-        <v>352</v>
+        <v>1741</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
-        <v>1743</v>
-      </c>
-      <c r="B544" s="6" t="s">
-        <v>353</v>
+        <v>1742</v>
+      </c>
+      <c r="B544" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
-        <v>1744</v>
-      </c>
-      <c r="B545" s="6" t="s">
-        <v>354</v>
+        <v>1743</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
-        <v>1745</v>
-      </c>
-      <c r="B546" s="6" t="s">
-        <v>355</v>
+        <v>1744</v>
+      </c>
+      <c r="B546" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
-        <v>1746</v>
-      </c>
-      <c r="B547" s="6" t="s">
-        <v>356</v>
+        <v>1745</v>
+      </c>
+      <c r="B547" s="8" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
-        <v>1747</v>
-      </c>
-      <c r="B548" s="6" t="s">
-        <v>357</v>
+        <v>1746</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
-        <v>1748</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>358</v>
+        <v>1747</v>
+      </c>
+      <c r="B549" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
-        <v>1749</v>
-      </c>
-      <c r="B550" s="6" t="s">
-        <v>359</v>
+        <v>1748</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
-        <v>1750</v>
-      </c>
-      <c r="B551" s="6" t="s">
-        <v>360</v>
+        <v>1749</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
-        <v>1751</v>
-      </c>
-      <c r="B552" s="6" t="s">
-        <v>361</v>
+        <v>1750</v>
+      </c>
+      <c r="B552" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
-        <v>1752</v>
-      </c>
-      <c r="B553" s="6" t="s">
-        <v>362</v>
+        <v>1751</v>
+      </c>
+      <c r="B553" s="8" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
-        <v>1753</v>
-      </c>
-      <c r="B554" s="6" t="s">
-        <v>363</v>
+        <v>1752</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
-        <v>1754</v>
-      </c>
-      <c r="B555" s="6" t="s">
-        <v>364</v>
+        <v>1753</v>
+      </c>
+      <c r="B555" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
-        <v>1755</v>
-      </c>
-      <c r="B556" s="6" t="s">
-        <v>365</v>
+        <v>1754</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
-        <v>1756</v>
-      </c>
-      <c r="B557" s="6" t="s">
-        <v>366</v>
+        <v>1755</v>
+      </c>
+      <c r="B557" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
-        <v>1757</v>
-      </c>
-      <c r="B558" s="6" t="s">
-        <v>367</v>
+        <v>1756</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
-        <v>1758</v>
-      </c>
-      <c r="B559" s="6" t="s">
-        <v>368</v>
+        <v>1757</v>
+      </c>
+      <c r="B559" s="8" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
-        <v>1759</v>
-      </c>
-      <c r="B560" s="6" t="s">
-        <v>369</v>
+        <v>1758</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
-        <v>1760</v>
-      </c>
-      <c r="B561" s="6" t="s">
-        <v>370</v>
+        <v>1759</v>
+      </c>
+      <c r="B561" s="8" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
-        <v>1761</v>
-      </c>
-      <c r="B562" s="6" t="s">
-        <v>371</v>
+        <v>1760</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
-        <v>1762</v>
-      </c>
-      <c r="B563" s="6" t="s">
-        <v>372</v>
+        <v>1761</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
-        <v>1763</v>
-      </c>
-      <c r="B564" s="6" t="s">
-        <v>373</v>
+        <v>1762</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
-        <v>1764</v>
-      </c>
-      <c r="B565" s="6" t="s">
-        <v>374</v>
+        <v>1763</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
-        <v>1765</v>
-      </c>
-      <c r="B566" s="6" t="s">
-        <v>375</v>
+        <v>1764</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
-        <v>1766</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>377</v>
+        <v>1765</v>
+      </c>
+      <c r="B567" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
-        <v>1767</v>
-      </c>
-      <c r="B568" s="6" t="s">
-        <v>378</v>
+        <v>1766</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
-        <v>1768</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>379</v>
+        <v>1767</v>
+      </c>
+      <c r="B569" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
-        <v>1769</v>
-      </c>
-      <c r="B570" s="6" t="s">
-        <v>380</v>
+        <v>1768</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
-        <v>1770</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>381</v>
+        <v>1769</v>
+      </c>
+      <c r="B571" s="8" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
-        <v>1771</v>
-      </c>
-      <c r="B572" s="6" t="s">
-        <v>382</v>
+        <v>1770</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
-        <v>1772</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>383</v>
+        <v>1771</v>
+      </c>
+      <c r="B573" s="8" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
-        <v>1773</v>
-      </c>
-      <c r="B574" s="6" t="s">
-        <v>384</v>
+        <v>1772</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
-        <v>1774</v>
-      </c>
-      <c r="B575" s="6" t="s">
-        <v>385</v>
+        <v>1773</v>
+      </c>
+      <c r="B575" s="8" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
-        <v>1775</v>
-      </c>
-      <c r="B576" s="6" t="s">
-        <v>386</v>
+        <v>1774</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
-        <v>1776</v>
-      </c>
-      <c r="B577" s="6" t="s">
-        <v>387</v>
+        <v>1775</v>
+      </c>
+      <c r="B577" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
-        <v>1777</v>
-      </c>
-      <c r="B578" s="6" t="s">
-        <v>388</v>
+        <v>1776</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
-        <v>1778</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>389</v>
+        <v>1777</v>
+      </c>
+      <c r="B579" s="8" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
-        <v>1779</v>
-      </c>
-      <c r="B580" s="6" t="s">
-        <v>390</v>
+        <v>1778</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
-        <v>1780</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>391</v>
+        <v>1779</v>
+      </c>
+      <c r="B581" s="8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
-        <v>1781</v>
-      </c>
-      <c r="B582" s="6" t="s">
-        <v>392</v>
+        <v>1780</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
-        <v>1782</v>
-      </c>
-      <c r="B583" s="6" t="s">
-        <v>393</v>
+        <v>1781</v>
+      </c>
+      <c r="B583" s="8" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
-        <v>1783</v>
-      </c>
-      <c r="B584" s="6" t="s">
-        <v>394</v>
+        <v>1782</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
-        <v>1784</v>
-      </c>
-      <c r="B585" s="6" t="s">
-        <v>395</v>
+        <v>1783</v>
+      </c>
+      <c r="B585" s="8" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
-        <v>1785</v>
-      </c>
-      <c r="B586" s="6" t="s">
-        <v>396</v>
+        <v>1784</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
-        <v>1786</v>
-      </c>
-      <c r="B587" s="6" t="s">
-        <v>397</v>
+        <v>1785</v>
+      </c>
+      <c r="B587" s="8" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
-        <v>1787</v>
-      </c>
-      <c r="B588" s="6" t="s">
-        <v>398</v>
+        <v>1786</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
-        <v>1788</v>
-      </c>
-      <c r="B589" s="6" t="s">
-        <v>399</v>
+        <v>1787</v>
+      </c>
+      <c r="B589" s="8" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
-        <v>1789</v>
-      </c>
-      <c r="B590" s="6" t="s">
-        <v>400</v>
+        <v>1788</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
-        <v>1790</v>
-      </c>
-      <c r="B591" s="6" t="s">
-        <v>401</v>
+        <v>1789</v>
+      </c>
+      <c r="B591" s="8" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
-        <v>1791</v>
-      </c>
-      <c r="B592" s="6" t="s">
-        <v>402</v>
+        <v>1790</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
-        <v>1792</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>403</v>
+        <v>1791</v>
+      </c>
+      <c r="B593" s="8" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
-        <v>1793</v>
-      </c>
-      <c r="B594" s="6" t="s">
-        <v>404</v>
+        <v>1792</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
-        <v>1794</v>
-      </c>
-      <c r="B595" s="6" t="s">
-        <v>405</v>
+        <v>1793</v>
+      </c>
+      <c r="B595" s="8" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
-        <v>1795</v>
-      </c>
-      <c r="B596" s="6" t="s">
-        <v>406</v>
+        <v>1794</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
-        <v>1796</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>407</v>
+        <v>1795</v>
+      </c>
+      <c r="B597" s="8" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
-        <v>1797</v>
-      </c>
-      <c r="B598" s="6" t="s">
-        <v>408</v>
+        <v>1796</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
-        <v>1798</v>
-      </c>
-      <c r="B599" s="6" t="s">
-        <v>409</v>
+        <v>1797</v>
+      </c>
+      <c r="B599" s="8" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
-        <v>1799</v>
-      </c>
-      <c r="B600" s="6" t="s">
-        <v>410</v>
+        <v>1798</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
-        <v>1800</v>
-      </c>
-      <c r="B601" s="6" t="s">
-        <v>411</v>
+        <v>1799</v>
+      </c>
+      <c r="B601" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A602" s="5">
-        <v>1801</v>
-      </c>
-      <c r="B602" s="6" t="s">
-        <v>412</v>
-      </c>
+      <c r="A602" s="5"/>
+      <c r="B602" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14169,7 +14075,6 @@
     <hyperlink ref="B599" r:id="rId598"/>
     <hyperlink ref="B600" r:id="rId599"/>
     <hyperlink ref="B601" r:id="rId600"/>
-    <hyperlink ref="B602" r:id="rId601"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
